--- a/data/profiles/xlsx/bluff/profile 21-2 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 21-2 graph.xlsx
@@ -1755,11 +1755,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="13767975"/>
-        <c:axId val="66127537"/>
+        <c:axId val="85663404"/>
+        <c:axId val="20579208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13767975"/>
+        <c:axId val="85663404"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,12 +1840,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66127537"/>
+        <c:crossAx val="20579208"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66127537"/>
+        <c:axId val="20579208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,7 +1935,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13767975"/>
+        <c:crossAx val="85663404"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
